--- a/biology/Zoologie/Colaspoides/Colaspoides.xlsx
+++ b/biology/Zoologie/Colaspoides/Colaspoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colaspoides est un genre de coléoptères de la famille des Chrysomelidae et de la sous-famille des Eumolpinae.
 </t>
@@ -511,200 +523,202 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Colaspoides amazona Jacoby, 1881[2]
-Colaspoides acervata Lea, 1915[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Colaspoides amazona Jacoby, 1881
+Colaspoides acervata Lea, 1915
 Colaspoides alyconea Erichson, 1847
-Colaspoides angusticollis Jacoby, 1898[4]
+Colaspoides angusticollis Jacoby, 1898
 Colaspoides annamita Medvedev, 2003
-Colaspoides anomogastra Lea, 1915[3]
+Colaspoides anomogastra Lea, 1915
 Colaspoides apicata Medvedev, 2003
 Colaspoides armata Medvedev, 2003
 Colaspoides bacboensis Medvedev, 2003
 Colaspoides bengalensis Duvivier, 1892
-Colaspoides bicarinata Lea, 1915[3]
+Colaspoides bicarinata Lea, 1915
 Colaspoides bicolor Bechyné, 1953
-Colaspoides bicoloricollis Medvedev &amp; Romantsov, 2014[5]
+Colaspoides bicoloricollis Medvedev &amp; Romantsov, 2014
 Colaspoides bidentatus Medvedev, 2003
-Colaspoides biplagiata Baly, 1867[6]
-Colaspoides borneoensis Jacoby, 1898[4]
+Colaspoides biplagiata Baly, 1867
+Colaspoides borneoensis Jacoby, 1898
 Colaspoides brancuccii Medvedev, 2003
-Colaspoides brevicollis Jacoby, 1898[4]
-Colaspoides brunnea Bryant, 1957[7]
+Colaspoides brevicollis Jacoby, 1898
+Colaspoides brunnea Bryant, 1957
 Colaspoides buonloicus Medvedev, 2003
 Colaspoides cantonensis Medvedev, 2003
-Colaspoides cariniventris Lea, 1926[8]
+Colaspoides cariniventris Lea, 1926
 Colaspoides chakratongii (Chujro, 1892)
 Colaspoides chapuisi Medvedev, 2003
 Colaspoides cheni Medvedev, 2003
-Colaspoides chinensis Jacoby, 1888[9]
-Colaspoides circumdatus Medvedev &amp; Romantsov, 2014[5]
+Colaspoides chinensis Jacoby, 1888
+Colaspoides circumdatus Medvedev &amp; Romantsov, 2014
 Colaspoides clavipes Medvedev, 2003
-Colaspoides coerulescens Baly, 1867[6]
-Colaspoides coerulipes Baly, 1867[6]
-Colaspoides confusa Gressitt, 1957[7]
-Colaspoides cognata Baly, 1867[6]
+Colaspoides coerulescens Baly, 1867
+Colaspoides coerulipes Baly, 1867
+Colaspoides confusa Gressitt, 1957
+Colaspoides cognata Baly, 1867
 Colaspoides cognatella Medvedev, 2003
 Colaspoides cognatomima Medvedev, 2003
-Colaspoides complicata Lea, 1915[3]
+Colaspoides complicata Lea, 1915
 Colaspoides costalis Medvedev, 2003
 Colaspoides crassifemur Tan &amp; Wang, 1984
-Colaspoides crassipes Lea, 1915[3]
-Colaspoides cuprea Baly, 1867[6]
-Colaspoides cupreicollis Jacoby, 1908[10]
-Colaspoides cupreoviridis Lea, 1922[11]
+Colaspoides crassipes Lea, 1915
+Colaspoides cuprea Baly, 1867
+Colaspoides cupreicollis Jacoby, 1908
+Colaspoides cupreoviridis Lea, 1922
 Colaspoides curvipes Medvedev, 2003
 Colaspoides daccordii Medvedev, 2003
 Colaspoides dapi Medvedev, 2003
-Colaspoides diffinis Lefèvre, 1893[12]
+Colaspoides diffinis Lefèvre, 1893
 Colaspoides dimorphus Medvedev, 2003
-Colaspoides doddi Lea, 1915[3]
-Colaspoides dohertii Jacoby, 1908[10]
-Colaspoides elegans Baly, 1867[6]
-Colaspoides elegantula Lea, 1915[3]
-Colaspoides elenae Medvedev &amp; Romantsov, 2014[5]
+Colaspoides doddi Lea, 1915
+Colaspoides dohertii Jacoby, 1908
+Colaspoides elegans Baly, 1867
+Colaspoides elegantula Lea, 1915
+Colaspoides elenae Medvedev &amp; Romantsov, 2014
 †Colaspoides eocenicus Moseyko &amp; Kirejtshuk, 2013
-Colaspoides excavativentris Lea, 1926[8] (excaviventris?)
-Colaspoides fasciculata Lea, 1921[13]
+Colaspoides excavativentris Lea, 1926 (excaviventris?)
+Colaspoides fasciculata Lea, 1921
 Colaspoides feae Jacoby, 1882
 Colaspoides femoralis Lefèvre, 1885
 Colaspoides flavimana Medvedev, 2003
-Colaspoides foveiventris Lea, 1915[3]
-Colaspoides frenchi Lea, 1915[3]
-Colaspoides fruhstorferi Jacoby, 1898[4]
+Colaspoides foveiventris Lea, 1915
+Colaspoides frenchi Lea, 1915
+Colaspoides fruhstorferi Jacoby, 1898
 Colaspoides fontis Jolivet, Verma &amp; Mille, 2008
 Colaspoides fulvicornis (Baly, 1865)
-Colaspoides fulvimana Jacoby, 1908[10]
+Colaspoides fulvimana Jacoby, 1908
 Colaspoides fulvipes Lefèvre, 1889
-Colaspoides fulvus Medvedev, 2015[14]
-Colaspoides fuscoaenea Baly, 1867[6]
+Colaspoides fulvus Medvedev, 2015
+Colaspoides fuscoaenea Baly, 1867
 Colaspoides geminata Weise, 1908
 Colaspoides geniculatus Medvedev, 2003
 Colaspoides glabrata Jacoby, 1898
-Colaspoides glabricollis Jacoby, 1908[10]
+Colaspoides glabricollis Jacoby, 1908
 Colaspoides gratiosa (Baly, 1864)
 Colaspoides gressetti Medvedev, 2003
-Colaspoides haemorrhoidalis Lea, 1915[3]
+Colaspoides haemorrhoidalis Lea, 1915
 Colaspoides hainanensis Gressitt &amp; Kimoto, 1961
 Colaspoides hagiangi Medvedev, 2003
-Colaspoides heroni Lea, 1915[3]
-Colaspoides hoblerae Lea, 1915[3]
-Colaspoides howensis Lea, 1915[3]
+Colaspoides heroni Lea, 1915
+Colaspoides hoblerae Lea, 1915
+Colaspoides howensis Lea, 1915
 Colaspoides igneicollis Lefèvre, 1891
 Colaspoides imasakai Komiya, 1991
 Colaspoides imitans Medvedev, 2003
-Colaspoides inornata Baly, 1867[6]
-Colaspoides insignis Baly, 1867[6]
+Colaspoides inornata Baly, 1867
+Colaspoides insignis Baly, 1867
 Colaspoides jacobyi Medvedev, 2003
 Colaspoides japana Chûjô, 1956
 Colaspoides kabakovi Medvedev, 2003
 Colaspoides kantneri Medvedev, 2003
 Colaspoides kimotoi Medvedev, 2003
-Colaspoides klimenkoi Medvedev &amp; Romantsov, 2014[5]
+Colaspoides klimenkoi Medvedev &amp; Romantsov, 2014
 Colaspoides kubani Medvedev, 2003
 Colaspoides laeta Medvedev, 2003
 Colaspoides lamellatus Medvedev, 2003
 Colaspoides langbianicus Kimoto &amp; Gressitt, 1982
 Colaspoides laosensis Kimoto &amp; Gressitt, 1982
 Colaspoides laotica Medvedev, 2003
-Colaspoides laportei Baly, 1867[6] (laportii?)
+Colaspoides laportei Baly, 1867 (laportii?)
 Colaspoides leai Medvedev, 2002
 Colaspoides limbata (Fabricius, 1781)
 Colaspoides lobatus Medvedev, 2003
-Colaspoides malayana Jacoby, 1894[15]
+Colaspoides malayana Jacoby, 1894
 Colaspoides malayensis Medvedev, 2003
-Colaspoides martini Lefèvre, 1885[16]
-Colaspoides martini martini Lefèvre, 1885[16]
-Colaspoides martini spinigerus Lefèvre, 1893[12]
+Colaspoides martini Lefèvre, 1885
+Colaspoides martini martini Lefèvre, 1885
+Colaspoides martini spinigerus Lefèvre, 1893
 Colaspoides medogensis Tan, 1989
-Colaspoides melanocephala Jacoby, 1908[10]
-Colaspoides mentaweica Medvedev, 2003[17]
-Colaspoides micans Baly, 1867[6]
+Colaspoides melanocephala Jacoby, 1908
+Colaspoides mentaweica Medvedev, 2003
+Colaspoides micans Baly, 1867
 Colaspoides microdentata Medvedev, 2003
-Colaspoides mimeta Lea, 1915[3]
+Colaspoides mimeta Lea, 1915
 Colaspoides mimica Medvedev, 2003
 Colaspoides minimus Kimoto &amp; Gressitt, 1982
 Colaspoides miyatakei Kimoto, 1967
-Colaspoides modesta Baly, 1867[6]
+Colaspoides modesta Baly, 1867
 Colaspoides morimotoi Kimoto, 1967
-Colaspoides nepalensis Kimoto, 2001[18]
+Colaspoides nepalensis Kimoto, 2001
 Colaspoides nigricornis Jacoby, 1884
 Colaspoides nigrotibialis Medvedev, 2003
-Colaspoides norfolcensis Lea, 1915[3]
+Colaspoides norfolcensis Lea, 1915
 Colaspoides okinawanus Komiya, 1991
 Colaspoides olegi Medvedev, 2003
-Colaspoides opaca Jacoby, 1888[9]
+Colaspoides opaca Jacoby, 1888
 Colaspoides ovalis Lefèvre, 1890
-Colaspoides paddis Aslam, 1968[19]
-Colaspoides parvidens Lea, 1915[3]
-Colaspoides parvula Baly, 1867[6]
+Colaspoides paddis Aslam, 1968
+Colaspoides parvidens Lea, 1915
+Colaspoides parvula Baly, 1867
 Colaspoides persimilis Kimoto &amp; Gressitt, 1982
-Colaspoides peruanda Jacoby, 1879[20]
-Colaspoides philippinensis Baly, 1867[6]
-Colaspoides picea Baly, 1867[6]
+Colaspoides peruanda Jacoby, 1879
+Colaspoides philippinensis Baly, 1867
+Colaspoides picea Baly, 1867
 Colaspoides piceana Medvedev, 2003
 Colaspoides picipes Weise, 1908
-Colaspoides picticornis Lea, 1915[3]
-Colaspoides pictipes Lea, 1915[3]
+Colaspoides picticornis Lea, 1915
+Colaspoides pictipes Lea, 1915
 Colaspoides pilicornis Lefèvre, 1882
-Colaspoides poeciloderma Lea, 1915[3]
-Colaspoides polilovi Medvedev, 2010[21]
+Colaspoides poeciloderma Lea, 1915
+Colaspoides polilovi Medvedev, 2010
 Colaspoides prasinella Medvedev, 2003
 Colaspoides prasinus Lefèvre, 1890
 Colaspoides prasinus prasinus Lefèvre, 1890
 Colaspoides prasinus occidentalis Medvedev, 2003
 Colaspoides pseudodiffinis Medvedev, 2003
-Colaspoides pseudorufa Medvedev, 2015[14]
-Colaspoides pulchella Clark, 1865[22]
-Colaspoides puncticeps Baly, 1867[6]
+Colaspoides pseudorufa Medvedev, 2015
+Colaspoides pulchella Clark, 1865
+Colaspoides puncticeps Baly, 1867
 Colaspoides punctipleuris Medvedev, 2003
-Colaspoides purpurata Medvedev &amp; Takizawa, 2011[23]
-Colaspoides quadripartita Baly, 1867[6]
-Colaspoides quieta Lea, 1915[3]
-Colaspoides rafflesii Baly, 1867[6]
-Colaspoides rara Lea, 1915[3]
-Colaspoides rectilatera Lea, 1915[3]
+Colaspoides purpurata Medvedev &amp; Takizawa, 2011
+Colaspoides quadripartita Baly, 1867
+Colaspoides quieta Lea, 1915
+Colaspoides rafflesii Baly, 1867
+Colaspoides rara Lea, 1915
+Colaspoides rectilatera Lea, 1915
 Colaspoides regalini Medvedev, 2003
-Colaspoides regularis Baly, 1867[6]
-Colaspoides robusta Baly, 1867[6]
+Colaspoides regularis Baly, 1867
+Colaspoides robusta Baly, 1867
 Colaspoides rufa Gressitt &amp; Kimoto, 1961
 Colaspoides rufipes Kimoto &amp; Gressitt, 1982
 Colaspoides rufofulva Medvedev, 2003
-Colaspoides rugipennis (Motschulsky, 1860)[24]
-Colaspoides rugipennis Lefèvre, 1893[12] (homonym?)
+Colaspoides rugipennis (Motschulsky, 1860)
+Colaspoides rugipennis Lefèvre, 1893 (homonym?)
 Colaspoides rugulosus Lefèvre, 1889
 Colaspoides sarrameae Jolivet, Verma &amp; Mille, 2008
-Colaspoides schulzi Medvedev, 2007[25]
+Colaspoides schulzi Medvedev, 2007
 Colaspoides semipicea Jacoby, 1895
 Colaspoides seticornis Medvedev, 2003
 Colaspoides shapaensis Medvedev, 2003
 Colaspoides siamensis Jacoby, 1905
-Colaspoides similis Lea, 1915[3]
-Colaspoides simillima Baly, 1867[6]
+Colaspoides similis Lea, 1915
+Colaspoides simillima Baly, 1867
 Colaspoides simplicipennis Jacoby, 1885
 Colaspoides striatopunctata (Boisduval, 1835)
-Colaspoides suavis Lea, 1915[3]
+Colaspoides suavis Lea, 1915
 Colaspoides sublaevicollis Duvivier, 1892
 Colaspoides subovata Medvedev, 2003
 Colaspoides tamdaoensis Medvedev, 2003
-Colaspoides tarsalis Lea, 1915[3]
+Colaspoides tarsalis Lea, 1915
 Colaspoides tenenbaumi Pic, 1942
 Colaspoides thailandicus Kimoto &amp; Gressitt, 1982
 Colaspoides tridentata Medvedev, 2003
-Colaspoides trusmadiensis Medvedev &amp; Romantsov, 2014[5]
-Colaspoides tuberculata Baly, 1867[6]
-Colaspoides varians Baly, 1867[6]
-Colaspoides ventralis Medvedev, 2018[26]
+Colaspoides trusmadiensis Medvedev &amp; Romantsov, 2014
+Colaspoides tuberculata Baly, 1867
+Colaspoides varians Baly, 1867
+Colaspoides ventralis Medvedev, 2018
 Colaspoides vietnamicus Kimoto &amp; Gressitt, 1982
-Colaspoides violacea Baly, 1867[6]
-Colaspoides viridana Baly, 1867[6]
-Colaspoides viridicollis Jacoby, 1878[27]
-Colaspoides viridimarginata Baly, 1867[6]
+Colaspoides violacea Baly, 1867
+Colaspoides viridana Baly, 1867
+Colaspoides viridicollis Jacoby, 1878
+Colaspoides viridimarginata Baly, 1867
 Colaspoides viridipennis Weise, 1923
-Colaspoides vitiensis Bryant, 1938[28]
-Colaspoides vocki Medvedev, 2007[25]
-Colaspoides volkovi Medvedev &amp; Romantsov, 2014[5]
+Colaspoides vitiensis Bryant, 1938
+Colaspoides vocki Medvedev, 2007
+Colaspoides volkovi Medvedev &amp; Romantsov, 2014
 Colaspoides yunnanica Medvedev, 2003
 Colaspoides zoiai Medvedev, 2003</t>
         </is>
